--- a/output/output_android.xlsx
+++ b/output/output_android.xlsx
@@ -1499,7 +1499,7 @@
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L10" s="22" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L11" s="22" t="n"/>
@@ -1589,7 +1589,7 @@
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L12" s="22" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L13" s="22" t="n"/>
@@ -1679,7 +1679,7 @@
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L14" s="22" t="n"/>
@@ -1724,7 +1724,7 @@
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L15" s="22" t="n"/>
@@ -1769,7 +1769,7 @@
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L16" s="22" t="n"/>
@@ -1814,7 +1814,7 @@
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L17" s="22" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L18" s="22" t="n"/>
@@ -1904,7 +1904,7 @@
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L19" s="22" t="n"/>
@@ -1949,7 +1949,7 @@
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L20" s="22" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="101" t="inlineStr">
         <is>
-          <t>12/21</t>
+          <t>12/27</t>
         </is>
       </c>
       <c r="L21" s="22" t="n"/>

--- a/output/output_android.xlsx
+++ b/output/output_android.xlsx
@@ -1499,7 +1499,7 @@
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L10" s="22" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L11" s="22" t="n"/>
@@ -1589,7 +1589,7 @@
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L12" s="22" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L13" s="22" t="n"/>
@@ -1679,7 +1679,7 @@
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L14" s="22" t="n"/>
@@ -1724,7 +1724,7 @@
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L15" s="22" t="n"/>
@@ -1769,7 +1769,7 @@
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L16" s="22" t="n"/>
@@ -1814,7 +1814,7 @@
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L17" s="22" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L18" s="22" t="n"/>
@@ -1904,7 +1904,7 @@
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L19" s="22" t="n"/>
@@ -1949,7 +1949,7 @@
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L20" s="22" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="101" t="inlineStr">
         <is>
-          <t>12/27</t>
+          <t>12/29</t>
         </is>
       </c>
       <c r="L21" s="22" t="n"/>
